--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H2">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8254096666666667</v>
+        <v>0.07089166666666667</v>
       </c>
       <c r="N2">
-        <v>2.476229</v>
+        <v>0.212675</v>
       </c>
       <c r="O2">
-        <v>0.9632797185740577</v>
+        <v>0.07641114965052251</v>
       </c>
       <c r="P2">
-        <v>0.9632797185740578</v>
+        <v>0.07641114965052251</v>
       </c>
       <c r="Q2">
-        <v>69.96875391107078</v>
+        <v>6.779772629847223</v>
       </c>
       <c r="R2">
-        <v>629.718785199637</v>
+        <v>61.017953668625</v>
       </c>
       <c r="S2">
-        <v>0.2477305825642246</v>
+        <v>0.02146257932675556</v>
       </c>
       <c r="T2">
-        <v>0.2477305825642247</v>
+        <v>0.02146257932675556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H3">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03146466666666667</v>
+        <v>0.8254096666666667</v>
       </c>
       <c r="N3">
-        <v>0.09439400000000001</v>
+        <v>2.476229</v>
       </c>
       <c r="O3">
-        <v>0.03672028142594227</v>
+        <v>0.8896744078427822</v>
       </c>
       <c r="P3">
-        <v>0.03672028142594227</v>
+        <v>0.8896744078427823</v>
       </c>
       <c r="Q3">
-        <v>2.667213152209111</v>
+        <v>78.93861337455722</v>
       </c>
       <c r="R3">
-        <v>24.004918369882</v>
+        <v>710.447520371015</v>
       </c>
       <c r="S3">
-        <v>0.009443504865893832</v>
+        <v>0.2498942581107915</v>
       </c>
       <c r="T3">
-        <v>0.009443504865893836</v>
+        <v>0.2498942581107916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.6830266666667</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H4">
-        <v>401.04908</v>
+        <v>286.907035</v>
       </c>
       <c r="I4">
-        <v>0.4055728628296552</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J4">
-        <v>0.4055728628296552</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.8254096666666667</v>
+        <v>0.03146466666666667</v>
       </c>
       <c r="N4">
-        <v>2.476229</v>
+        <v>0.09439400000000001</v>
       </c>
       <c r="O4">
-        <v>0.9632797185740577</v>
+        <v>0.03391444250669529</v>
       </c>
       <c r="P4">
-        <v>0.9632797185740578</v>
+        <v>0.0339144425066953</v>
       </c>
       <c r="Q4">
-        <v>110.3432624799245</v>
+        <v>3.009144740198889</v>
       </c>
       <c r="R4">
-        <v>993.08936231932</v>
+        <v>27.08230266179</v>
       </c>
       <c r="S4">
-        <v>0.3906801131678251</v>
+        <v>0.009525984309250096</v>
       </c>
       <c r="T4">
-        <v>0.3906801131678252</v>
+        <v>0.009525984309250099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>401.04908</v>
       </c>
       <c r="I5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03146466666666667</v>
+        <v>0.07089166666666667</v>
       </c>
       <c r="N5">
-        <v>0.09439400000000001</v>
+        <v>0.212675</v>
       </c>
       <c r="O5">
-        <v>0.03672028142594227</v>
+        <v>0.07641114965052251</v>
       </c>
       <c r="P5">
-        <v>0.03672028142594227</v>
+        <v>0.07641114965052251</v>
       </c>
       <c r="Q5">
-        <v>4.206291873057778</v>
+        <v>9.477012565444445</v>
       </c>
       <c r="R5">
-        <v>37.85662685752001</v>
+        <v>85.293113089</v>
       </c>
       <c r="S5">
-        <v>0.01489274966183002</v>
+        <v>0.03000117335366955</v>
       </c>
       <c r="T5">
-        <v>0.01489274966183002</v>
+        <v>0.03000117335366955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>111.16377</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H6">
-        <v>333.49131</v>
+        <v>401.04908</v>
       </c>
       <c r="I6">
-        <v>0.3372530497402263</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J6">
-        <v>0.3372530497402264</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>2.476229</v>
       </c>
       <c r="O6">
-        <v>0.9632797185740577</v>
+        <v>0.8896744078427822</v>
       </c>
       <c r="P6">
-        <v>0.9632797185740578</v>
+        <v>0.8896744078427823</v>
       </c>
       <c r="Q6">
-        <v>91.75565034111</v>
+        <v>110.3432624799245</v>
       </c>
       <c r="R6">
-        <v>825.80085306999</v>
+        <v>993.08936231932</v>
       </c>
       <c r="S6">
-        <v>0.3248690228420079</v>
+        <v>0.3493112753844306</v>
       </c>
       <c r="T6">
-        <v>0.324869022842008</v>
+        <v>0.3493112753844307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.16377</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H7">
-        <v>333.49131</v>
+        <v>401.04908</v>
       </c>
       <c r="I7">
-        <v>0.3372530497402263</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J7">
-        <v>0.3372530497402264</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,208 @@
         <v>0.09439400000000001</v>
       </c>
       <c r="O7">
-        <v>0.03672028142594227</v>
+        <v>0.03391444250669529</v>
       </c>
       <c r="P7">
-        <v>0.03672028142594227</v>
+        <v>0.0339144425066953</v>
       </c>
       <c r="Q7">
+        <v>4.206291873057778</v>
+      </c>
+      <c r="R7">
+        <v>37.85662685752001</v>
+      </c>
+      <c r="S7">
+        <v>0.01331576705088178</v>
+      </c>
+      <c r="T7">
+        <v>0.01331576705088179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>111.16377</v>
+      </c>
+      <c r="H8">
+        <v>333.49131</v>
+      </c>
+      <c r="I8">
+        <v>0.3264889624642208</v>
+      </c>
+      <c r="J8">
+        <v>0.3264889624642208</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07089166666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.212675</v>
+      </c>
+      <c r="O8">
+        <v>0.07641114965052251</v>
+      </c>
+      <c r="P8">
+        <v>0.07641114965052251</v>
+      </c>
+      <c r="Q8">
+        <v>7.88058492825</v>
+      </c>
+      <c r="R8">
+        <v>70.92526435425</v>
+      </c>
+      <c r="S8">
+        <v>0.0249473969700974</v>
+      </c>
+      <c r="T8">
+        <v>0.0249473969700974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>111.16377</v>
+      </c>
+      <c r="H9">
+        <v>333.49131</v>
+      </c>
+      <c r="I9">
+        <v>0.3264889624642208</v>
+      </c>
+      <c r="J9">
+        <v>0.3264889624642208</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8254096666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.476229</v>
+      </c>
+      <c r="O9">
+        <v>0.8896744078427822</v>
+      </c>
+      <c r="P9">
+        <v>0.8896744078427823</v>
+      </c>
+      <c r="Q9">
+        <v>91.75565034111</v>
+      </c>
+      <c r="R9">
+        <v>825.80085306999</v>
+      </c>
+      <c r="S9">
+        <v>0.29046887434756</v>
+      </c>
+      <c r="T9">
+        <v>0.29046887434756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>111.16377</v>
+      </c>
+      <c r="H10">
+        <v>333.49131</v>
+      </c>
+      <c r="I10">
+        <v>0.3264889624642208</v>
+      </c>
+      <c r="J10">
+        <v>0.3264889624642208</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03146466666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.09439400000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.03391444250669529</v>
+      </c>
+      <c r="P10">
+        <v>0.0339144425066953</v>
+      </c>
+      <c r="Q10">
         <v>3.49773096846</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>31.47957871614</v>
       </c>
-      <c r="S7">
-        <v>0.01238402689821842</v>
-      </c>
-      <c r="T7">
-        <v>0.01238402689821842</v>
+      <c r="S10">
+        <v>0.01107269114656341</v>
+      </c>
+      <c r="T10">
+        <v>0.01107269114656342</v>
       </c>
     </row>
   </sheetData>
